--- a/DevelopmentPlan/7月上旬计划.xlsx
+++ b/DevelopmentPlan/7月上旬计划.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\企划书\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19170" windowHeight="7320"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>项目</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -63,35 +68,53 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>thatway</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>haqian</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>github代码、文档服务器搭建。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>thatway</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要具备nodejs知识（js JavaScript）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>MP4视频编解码研究，资料搜集。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>thatway</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>haqian</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>github代码、文档服务器搭建。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>open</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>thatway</t>
+    <t>https://blog.csdn.net/ruingman/article/details/53125867
+https://www.cnblogs.com/skyofbitbit/p/3651270.html
+https://blog.csdn.net/qq_29350001/article/details/73742075</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经下载（打不开）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_38880380/article/details/79277591</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,7 +739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,26 +776,29 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -787,19 +813,27 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -846,7 +880,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -878,9 +912,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -912,6 +947,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1087,20 +1123,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="43.08984375" style="5" customWidth="1"/>
-    <col min="3" max="6" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="43.125" style="5" customWidth="1"/>
+    <col min="3" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="38.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1120,7 +1157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23.5" customHeight="1">
+    <row r="2" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1136,9 +1173,11 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="23.5" customHeight="1">
+    <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1152,11 +1191,13 @@
         <v>43296</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="23.5" customHeight="1">
+    <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1172,14 +1213,16 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="23.5" customHeight="1">
+    <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1188,29 +1231,31 @@
         <v>43296</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" ht="23.5" customHeight="1">
+    <row r="6" spans="1:6" s="11" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="10">
         <v>43296</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="23.5" customHeight="1">
+    <row r="7" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1220,7 +1265,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="23.5" customHeight="1">
+    <row r="8" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1230,7 +1275,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="23.5" customHeight="1">
+    <row r="9" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1240,7 +1285,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="23.5" customHeight="1">
+    <row r="10" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>

--- a/DevelopmentPlan/7月上旬计划.xlsx
+++ b/DevelopmentPlan/7月上旬计划.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\企划书\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\资料\IPR\DevelopmentPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>项目</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -81,10 +81,6 @@
   </si>
   <si>
     <t>open</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>thatway</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -106,7 +102,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://blog.csdn.net/qq_38880380/article/details/79277591</t>
+    <t>https://blog.csdn.net/qq_38880380/article/category/7062129</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -739,7 +735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,6 +773,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1127,7 +1126,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1174,7 +1173,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -1193,8 +1192,8 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
+      <c r="F3" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -1214,7 +1213,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.15">
@@ -1222,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -1233,8 +1232,8 @@
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>18</v>
+      <c r="F5" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -1251,7 +1250,7 @@
         <v>43296</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" s="9"/>
     </row>

--- a/DevelopmentPlan/7月上旬计划.xlsx
+++ b/DevelopmentPlan/7月上旬计划.xlsx
@@ -834,6 +834,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180180</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>522843</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12353130" y="419099"/>
+          <a:ext cx="342663" cy="370361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1126,7 +1169,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1299,5 +1342,6 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>